--- a/WebTutorial.xlsx
+++ b/WebTutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Mục Lục" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Web API" sheetId="4" r:id="rId4"/>
     <sheet name="RESTfull API" sheetId="5" r:id="rId5"/>
     <sheet name="SPA( Singer Page App)" sheetId="6" r:id="rId6"/>
+    <sheet name="Client Side " sheetId="7" r:id="rId7"/>
+    <sheet name="Server Side" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -541,13 +543,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebTutorial.xlsx
+++ b/WebTutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Mục Lục" sheetId="2" r:id="rId1"/>
@@ -15,25 +15,29 @@
     <sheet name="SPA( Singer Page App)" sheetId="6" r:id="rId6"/>
     <sheet name="Client Side " sheetId="7" r:id="rId7"/>
     <sheet name="Server Side" sheetId="8" r:id="rId8"/>
+    <sheet name="Restful Api là gì" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>I. Khái niệm</t>
   </si>
   <si>
     <t>- Web API là website có sử dụng call API để xử lý, thao tác với dữ liệu và trả data về điểm gọi tới dưới dạng JSON hoặc XML.</t>
   </si>
+  <si>
+    <t>https://phambinh.net/bai-viet/restful-api-la-gi-cung-tim-hieu-ve-restful-api/#2_2_Quy_uoc_ve_resource,_endpoint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +57,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,18 +83,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,12 +585,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="2_2_Quy_uoc_ve_resource,_endpoint" display="https://phambinh.net/bai-viet/restful-api-la-gi-cung-tim-hieu-ve-restful-api/ - 2_2_Quy_uoc_ve_resource,_endpoint"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>